--- a/herbarium label_KFBG/herbarium_specimens_label_data.xlsx
+++ b/herbarium label_KFBG/herbarium_specimens_label_data.xlsx
@@ -77,48 +77,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <name val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Please check the date</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <name val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Please check the date</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <name val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Please check the date</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>GLOBAL_UNIQUE_IDENTIFIER</t>
   </si>
@@ -249,7 +213,7 @@
     <t>JL0520</t>
   </si>
   <si>
-    <t>2015-12-30</t>
+    <t>2014-03-01</t>
   </si>
   <si>
     <t>岗柃</t>
@@ -330,9 +294,6 @@
     <t>(Trucz.) Schischk.</t>
   </si>
   <si>
-    <t>1905-06-14</t>
-  </si>
-  <si>
     <t>蒲公英</t>
   </si>
   <si>
@@ -397,9 +358,6 @@
   </si>
   <si>
     <t>(Swartz) Candolle</t>
-  </si>
-  <si>
-    <t>1997-03-09</t>
   </si>
   <si>
     <t>珊瑚苣苔</t>
@@ -1008,7 +966,7 @@
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
         <v>44</v>
@@ -1106,7 +1064,7 @@
         <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
@@ -1202,7 +1160,7 @@
         <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>65</v>
@@ -1300,7 +1258,7 @@
         <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -1398,7 +1356,7 @@
         <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
@@ -1495,8 +1453,8 @@
       <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>70</v>
+      <c r="G8" t="s">
+        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>44</v>
@@ -1594,22 +1552,22 @@
         <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
         <v>71</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>72</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>73</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>74</v>
-      </c>
-      <c r="L9" t="s">
-        <v>75</v>
       </c>
       <c r="M9" t="s">
         <v>49</v>
@@ -1635,7 +1593,7 @@
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s">
         <v>55</v>
@@ -1692,7 +1650,7 @@
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
@@ -1790,13 +1748,13 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
         <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
         <v>67</v>
@@ -1867,7 +1825,7 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK11"/>
       <c r="AL11"/>
@@ -1888,7 +1846,7 @@
         <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
         <v>44</v>
@@ -1986,22 +1944,22 @@
         <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
         <v>79</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>81</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" t="s">
-        <v>83</v>
       </c>
       <c r="M13" t="s">
         <v>49</v>
@@ -2084,7 +2042,7 @@
         <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -2178,22 +2136,22 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
         <v>84</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>85</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>86</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>87</v>
-      </c>
-      <c r="L15" t="s">
-        <v>88</v>
       </c>
       <c r="M15" t="s">
         <v>49</v>
@@ -2274,22 +2232,22 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
         <v>89</v>
       </c>
-      <c r="I16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>90</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" t="s">
-        <v>92</v>
       </c>
       <c r="M16" t="s">
         <v>49</v>
@@ -2372,7 +2330,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
         <v>44</v>
@@ -2470,7 +2428,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
         <v>44</v>
@@ -2565,23 +2523,23 @@
       <c r="F19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" t="s">
         <v>93</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>94</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>95</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>96</v>
-      </c>
-      <c r="K19" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" t="s">
-        <v>98</v>
       </c>
       <c r="M19" t="s">
         <v>49</v>
@@ -2642,8 +2600,8 @@
       <c r="AI19" t="s">
         <v>41</v>
       </c>
-      <c r="AJ19" s="1" t="s">
-        <v>99</v>
+      <c r="AJ19" t="s">
+        <v>97</v>
       </c>
       <c r="AK19"/>
       <c r="AL19"/>
